--- a/src/data/profiles/xlsx/bluff/profile 35-4 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 35-4 graph.xlsx
@@ -24376,11 +24376,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="59625690"/>
-        <c:axId val="15939534"/>
+        <c:axId val="30390100"/>
+        <c:axId val="89381628"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59625690"/>
+        <c:axId val="30390100"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24415,12 +24415,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15939534"/>
+        <c:crossAx val="89381628"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="15939534"/>
+        <c:axId val="89381628"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24464,7 +24464,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="59625690"/>
+        <c:crossAx val="30390100"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
